--- a/biology/Histoire de la zoologie et de la botanique/Jan_Jonston/Jan_Jonston.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jan_Jonston/Jan_Jonston.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jan puis John Jonston (son prénom est souvent francisé en Jean ou latinisé en Johannes), né le 3 septembre 1603[1] à Szamotuły en Pologne et mort le 8 juin 1675, est un médecin auteur d'une encyclopédie zoologique parfois dite Histoire des animaux[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jan puis John Jonston (son prénom est souvent francisé en Jean ou latinisé en Johannes), né le 3 septembre 1603 à Szamotuły en Pologne et mort le 8 juin 1675, est un médecin auteur d'une encyclopédie zoologique parfois dite Histoire des animaux.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son père, Simon Jonston, et ses deux frères émigrent de la république des Deux Nations en Écosse. John Jonston fait ses études auprès d’un de ses oncles médecin. Il entre, en 1611, à l’école des Frères tchèques à Ostroróg, puis au Schoenaichianum de Bytom et, enfin, à partir de 1619 au gymnasium de Toruń de Prusse. Sa religion protestante l’empêche d’accéder à l’université Jagellon de Cracovie, aussi il étudie à l’université de St Andrews de 1622 à 1625 et obtient son Master of Arts en 1623. Il étudie la théologie, la philosophie scolastique et l’hébreu.
 En 1625, il retourne en Pologne où, jusqu’en 1628, il est précepteur dans la famille Kurtzbach-Zawadsk de Leszno. Il fréquente les Frères Tchèques et fait paraître son Enchiridion historiae naturalis (1625-1628, qui est traduit en anglais en 1657).
@@ -548,11 +562,13 @@
           <t>Son œuvre en histoire naturelle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Jonston s'intéresse autant à la médecine qu'à l'histoire naturelle et ses œuvres connaissent une large diffusion, notamment son Historia naturalis, peut-être l'une des dernières encyclopédies de cette nature en Europe.
 Mais, influencé par Pline l'Ancien, Aristote, Oppien de Corycos (IIe), Conrad Gessner (1516-1565) et Ulisse Aldrovandi (1522-1605), il ne fait que compiler les ouvrages antérieurs et n'apporte guère de faits nouveaux.
-Son Historiae naturalis de avibus est traduite du latin en allemand, en anglais, en néerlandais, en français et sera rééditée jusqu'à la fin du XVIIIe siècle. Les gravures, signées Matthäus Merian, qui illustrent son œuvre sont, souvent, plus réussies que les planches originales dont elles s’inspirent[3].
+Son Historiae naturalis de avibus est traduite du latin en allemand, en anglais, en néerlandais, en français et sera rééditée jusqu'à la fin du XVIIIe siècle. Les gravures, signées Matthäus Merian, qui illustrent son œuvre sont, souvent, plus réussies que les planches originales dont elles s’inspirent.
 L'IPNI lui attribue une abréviation en botanique en qualité d'auteur pré-linéen, mais sans plus de précision.
 Jonst. est l’abréviation botanique standard de Jan Jonston.
 Consulter la liste des abréviations d'auteur en botanique ou la liste des plantes assignées à cet auteur par l'IPNI
@@ -584,7 +600,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Historiae naturalis de quadrupedibus libri, cum aeneis figuris, Johannes Jonstonus,... concinnavit  (J. J. Schipperi, Amsterdam, 1657).
 Historiae naturalis de insectis libri II, de serpentibus et draconibus libri II, cum aeneis figuris, Joh. Jonstonus,... concinnavit (ad Moenum 1653; rééd. J. J. fil. Schipper, Amsterdam, 1657, réédité en 1665).
@@ -631,7 +649,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « John Jonston » (voir la liste des auteurs) (version du 28 avril 2006).</t>
         </is>
@@ -661,7 +681,9 @@
           <t>Note</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Certaines sources sont réservées sur la précision de cette date.
